--- a/src/data/compilation_of_errors_in_csv_dataset.xlsx
+++ b/src/data/compilation_of_errors_in_csv_dataset.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\remicura\PROJET\MIT\lobbyview_project\management\2019_12_06_presentation_lab\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\remicura\PROJET\MIT\lobbyview_project\relational_db_for_political_science\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FB2F16-58EC-4459-A064-3B319982CE4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833EE44D-740D-4382-8248-C510EE34B8AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{07FDB54F-D2A8-41F3-AF1A-F1E412E6EBEB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{07FDB54F-D2A8-41F3-AF1A-F1E412E6EBEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="161">
   <si>
     <t>M</t>
   </si>
@@ -516,6 +519,9 @@
   </si>
   <si>
     <t>Veterans affairs</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -597,7 +603,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -642,11 +648,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -691,11 +855,70 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -765,7 +988,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E9DE1DA-D1FD-4DC2-86B2-AA4DF3C44B3F}" name="Table1" displayName="Table1" ref="A1:P30" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E9DE1DA-D1FD-4DC2-86B2-AA4DF3C44B3F}" name="Table1" displayName="Table1" ref="A1:P30" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:P30" xr:uid="{09156963-608D-4A88-8A80-7430F95F3527}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -789,21 +1012,21 @@
   </sortState>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{585604C4-D3C9-4621-821C-AA13D27A1ABD}" name="pb"/>
-    <tableColumn id="2" xr3:uid="{D447CB9F-4B81-482B-ADA4-61C13E35C215}" name="rid" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{D447CB9F-4B81-482B-ADA4-61C13E35C215}" name="rid" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{51DA023F-0C0A-40DB-BB52-5ADC668A05F6}" name="gender"/>
     <tableColumn id="5" xr3:uid="{AA6D1C60-3FB9-4326-8C8B-50F944231155}" name="sw_politician_id"/>
     <tableColumn id="6" xr3:uid="{ADBFB054-D0EE-48BC-A57F-548D91038A5B}" name="gov_politician_name"/>
-    <tableColumn id="7" xr3:uid="{7C385495-4FB4-49B9-AE26-149832A19A43}" name="icpsr_politician_id" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{92F8FA4D-14A5-40C4-A159-A03644A7D22F}" name="govtrack_id" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{09C0726E-02FC-4F9C-A687-A59C2A51B0B5}" name="fec_candidate_id" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{7C385495-4FB4-49B9-AE26-149832A19A43}" name="icpsr_politician_id" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{92F8FA4D-14A5-40C4-A159-A03644A7D22F}" name="govtrack_id" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{09C0726E-02FC-4F9C-A687-A59C2A51B0B5}" name="fec_candidate_id" dataDxfId="7"/>
     <tableColumn id="10" xr3:uid="{F1CF784F-FCD6-4156-AAE4-511A0E5C2958}" name="gov_terms"/>
-    <tableColumn id="13" xr3:uid="{B11D074E-6E69-48A9-9154-F3FD8E527D04}" name="congress_num" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{9C2A65D8-B582-4AB9-8310-EE77B28EDCA5}" name="congress_begin_yr" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{79EDE507-123B-48B5-A3E5-DB9EE9D8BC81}" name="congress_end_yr" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{1F98221B-DF3E-4A7C-9B02-EC9F5CAE2836}" name="senior_party_member" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{9B797053-914A-448B-948D-FBF3BDEEEDE6}" name="chamber" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{B11D074E-6E69-48A9-9154-F3FD8E527D04}" name="congress_num" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{9C2A65D8-B582-4AB9-8310-EE77B28EDCA5}" name="congress_begin_yr" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{79EDE507-123B-48B5-A3E5-DB9EE9D8BC81}" name="congress_end_yr" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{1F98221B-DF3E-4A7C-9B02-EC9F5CAE2836}" name="senior_party_member" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{9B797053-914A-448B-948D-FBF3BDEEEDE6}" name="chamber" dataDxfId="2"/>
     <tableColumn id="22" xr3:uid="{A768334D-C868-4FAF-B4BB-C6A83326E8B0}" name="icpsr_com_name"/>
-    <tableColumn id="23" xr3:uid="{794A415B-EE4E-45ED-AC3F-0F868A5C6BB3}" name="icpsr_com_id" dataDxfId="0"/>
+    <tableColumn id="23" xr3:uid="{794A415B-EE4E-45ED-AC3F-0F868A5C6BB3}" name="icpsr_com_id" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -826,6 +1049,20 @@
     <tableColumn id="12" xr3:uid="{2CE489C9-6C9B-4E3B-9BF7-AAFFF9897625}" name="Column12"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E768E372-67A5-477B-AB70-7BA2B50388FE}" name="Table2" displayName="Table2" ref="A1:B15" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:B15" xr:uid="{3C375F64-077C-4FE1-B413-164EA845DBEE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B15">
+    <sortCondition ref="B1:B15"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{2E04A3CC-86E8-4751-83D6-8A2814A0A0BC}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{6DFDC819-16D0-4EDA-8D46-9FCB99E1809F}" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1132,27 +1369,27 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
     <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="6.5546875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="28.33203125" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="28.28515625" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>122</v>
       </c>
@@ -1202,7 +1439,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -1250,7 +1487,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -1298,7 +1535,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -1346,7 +1583,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -1394,7 +1631,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -1444,7 +1681,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -1494,7 +1731,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -1544,7 +1781,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -1594,7 +1831,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1644,7 +1881,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1690,7 +1927,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -1738,7 +1975,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -1786,7 +2023,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -1836,7 +2073,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1856,7 +2093,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>104</v>
       </c>
@@ -1876,7 +2113,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1926,7 +2163,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1972,7 +2209,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2022,7 +2259,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>105</v>
       </c>
@@ -2068,7 +2305,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -2114,7 +2351,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -2160,7 +2397,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -2206,7 +2443,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>101</v>
       </c>
@@ -2256,7 +2493,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -2306,7 +2543,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -2356,7 +2593,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -2406,7 +2643,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -2456,7 +2693,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -2506,7 +2743,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -2573,30 +2810,30 @@
       <selection sqref="A1:R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="12" width="11.88671875" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" customWidth="1"/>
-    <col min="16" max="16" width="19.88671875" customWidth="1"/>
-    <col min="17" max="19" width="11.88671875" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" customWidth="1"/>
-    <col min="21" max="21" width="15.88671875" customWidth="1"/>
-    <col min="22" max="22" width="12.88671875" customWidth="1"/>
-    <col min="23" max="23" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" customWidth="1"/>
+    <col min="17" max="19" width="11.85546875" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2615,7 +2852,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="6"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -2634,7 +2871,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -2642,7 +2879,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -2650,7 +2887,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -2658,7 +2895,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -2666,7 +2903,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -2674,7 +2911,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -2682,7 +2919,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -2690,7 +2927,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -2698,7 +2935,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -2706,25 +2943,25 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="13"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -2732,7 +2969,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -2740,7 +2977,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2748,7 +2985,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -2756,7 +2993,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -2764,7 +3001,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -2772,7 +3009,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -2780,7 +3017,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -2788,7 +3025,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -2796,7 +3033,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -2804,7 +3041,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -2812,7 +3049,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -2820,7 +3057,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -2828,7 +3065,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -2836,7 +3073,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -2844,7 +3081,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -2852,7 +3089,7 @@
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -2860,7 +3097,7 @@
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -2868,7 +3105,7 @@
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -2876,7 +3113,7 @@
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -2884,7 +3121,7 @@
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -2892,7 +3129,7 @@
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -2914,17 +3151,17 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>132</v>
       </c>
@@ -2932,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>137</v>
       </c>
@@ -2940,7 +3177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>138</v>
       </c>
@@ -2954,22 +3191,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45FC868-B111-4F32-B6BD-8FE4B6230DC1}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" customWidth="1"/>
-    <col min="3" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" customWidth="1"/>
-    <col min="9" max="9" width="3.77734375" customWidth="1"/>
-    <col min="10" max="10" width="30.77734375" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>139</v>
       </c>
@@ -3004,7 +3241,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>150</v>
       </c>
@@ -3035,7 +3272,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>150</v>
       </c>
@@ -3066,7 +3303,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>150</v>
       </c>
@@ -3097,7 +3334,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>150</v>
       </c>
@@ -3128,7 +3365,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>150</v>
       </c>
@@ -3159,7 +3396,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>150</v>
       </c>
@@ -3190,7 +3427,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>150</v>
       </c>
@@ -3221,7 +3458,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>150</v>
       </c>
@@ -3252,7 +3489,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>150</v>
       </c>
@@ -3283,7 +3520,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>150</v>
       </c>
@@ -3314,7 +3551,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>150</v>
       </c>
@@ -3345,7 +3582,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>150</v>
       </c>
@@ -3376,7 +3613,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>125</v>
       </c>
@@ -3411,7 +3648,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>125</v>
       </c>
@@ -3446,7 +3683,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>125</v>
       </c>
@@ -3481,7 +3718,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>125</v>
       </c>
@@ -3516,7 +3753,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>125</v>
       </c>
@@ -3551,7 +3788,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>125</v>
       </c>
@@ -3586,7 +3823,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>125</v>
       </c>
@@ -3619,7 +3856,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>125</v>
       </c>
@@ -3652,7 +3889,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>125</v>
       </c>
@@ -3685,7 +3922,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>125</v>
       </c>
@@ -3718,7 +3955,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>125</v>
       </c>
@@ -3751,7 +3988,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>125</v>
       </c>
@@ -3784,7 +4021,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>125</v>
       </c>
@@ -3817,7 +4054,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>125</v>
       </c>
@@ -3850,7 +4087,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>125</v>
       </c>
@@ -3883,7 +4120,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>125</v>
       </c>
@@ -3916,7 +4153,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>125</v>
       </c>
@@ -3949,7 +4186,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>132</v>
       </c>
@@ -3982,7 +4219,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>132</v>
       </c>
@@ -4015,7 +4252,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>132</v>
       </c>
@@ -4048,7 +4285,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>132</v>
       </c>
@@ -4081,7 +4318,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>132</v>
       </c>
@@ -4114,7 +4351,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>132</v>
       </c>
@@ -4153,4 +4390,1136 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C1471F-7320-4F27-BD05-6F5B02FE83FB}">
+  <dimension ref="B4:S39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" customWidth="1"/>
+    <col min="14" max="14" width="2.5703125" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" customWidth="1"/>
+    <col min="18" max="18" width="25.42578125" customWidth="1"/>
+    <col min="19" max="19" width="6" customWidth="1"/>
+    <col min="21" max="21" width="24" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="23">
+        <v>15245</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="37">
+        <v>106</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="38">
+        <v>106</v>
+      </c>
+      <c r="R5" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="S5" s="48">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="27">
+        <v>21522</v>
+      </c>
+      <c r="G6" s="27">
+        <v>412630</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="39">
+        <v>106</v>
+      </c>
+      <c r="N6" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="41">
+        <v>164</v>
+      </c>
+      <c r="R6" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="S6" s="50">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="31">
+        <v>49500</v>
+      </c>
+      <c r="G7" s="31">
+        <v>400555</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="39">
+        <v>107</v>
+      </c>
+      <c r="N7" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="42">
+        <v>106</v>
+      </c>
+      <c r="R7" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="50">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="34">
+        <v>70601</v>
+      </c>
+      <c r="G8" s="34">
+        <v>400002</v>
+      </c>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="39">
+        <v>107</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="41">
+        <v>164</v>
+      </c>
+      <c r="R8" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="S8" s="52">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M9" s="39">
+        <v>108</v>
+      </c>
+      <c r="N9" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="42">
+        <v>106</v>
+      </c>
+      <c r="R9" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="S9" s="54">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M10" s="39">
+        <v>108</v>
+      </c>
+      <c r="N10" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="41">
+        <v>164</v>
+      </c>
+      <c r="R10" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="S10" s="52">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M11" s="39">
+        <v>109</v>
+      </c>
+      <c r="N11" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="42">
+        <v>106</v>
+      </c>
+      <c r="R11" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="S11" s="54">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M12" s="39">
+        <v>109</v>
+      </c>
+      <c r="N12" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="41">
+        <v>164</v>
+      </c>
+      <c r="R12" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="S12" s="52">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M13" s="39">
+        <v>110</v>
+      </c>
+      <c r="N13" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="42">
+        <v>106</v>
+      </c>
+      <c r="R13" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="S13" s="54">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M14" s="39">
+        <v>110</v>
+      </c>
+      <c r="N14" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="41">
+        <v>164</v>
+      </c>
+      <c r="R14" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="S14" s="52">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M15" s="39">
+        <v>111</v>
+      </c>
+      <c r="N15" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="42">
+        <v>106</v>
+      </c>
+      <c r="R15" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="S15" s="54">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M16" s="39">
+        <v>111</v>
+      </c>
+      <c r="N16" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" s="41">
+        <v>164</v>
+      </c>
+      <c r="R16" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="S16" s="52">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="17" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M17" s="39">
+        <v>114</v>
+      </c>
+      <c r="N17" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" s="43">
+        <v>102</v>
+      </c>
+      <c r="R17" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="S17" s="54">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="18" spans="13:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M18" s="39">
+        <v>114</v>
+      </c>
+      <c r="N18" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" s="41">
+        <v>182</v>
+      </c>
+      <c r="R18" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="S18" s="56">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M19" s="39">
+        <v>114</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="O19" s="41">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M20" s="39">
+        <v>115</v>
+      </c>
+      <c r="N20" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="O20" s="43">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M21" s="39">
+        <v>115</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="O21" s="42">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M22" s="39">
+        <v>115</v>
+      </c>
+      <c r="N22" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="41">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="39">
+        <v>104</v>
+      </c>
+      <c r="N23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="41">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M24" s="39">
+        <v>104</v>
+      </c>
+      <c r="N24" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="41">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M25" s="39">
+        <v>104</v>
+      </c>
+      <c r="N25" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25" s="41">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M26" s="39">
+        <v>104</v>
+      </c>
+      <c r="N26" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="41">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="27" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M27" s="39">
+        <v>105</v>
+      </c>
+      <c r="N27" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="41">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M28" s="39">
+        <v>105</v>
+      </c>
+      <c r="N28" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="O28" s="41">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="29" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M29" s="39">
+        <v>105</v>
+      </c>
+      <c r="N29" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="41">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="30" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M30" s="39">
+        <v>106</v>
+      </c>
+      <c r="N30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="O30" s="41">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M31" s="39">
+        <v>106</v>
+      </c>
+      <c r="N31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="O31" s="41">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="32" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M32" s="39">
+        <v>106</v>
+      </c>
+      <c r="N32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="41">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="33" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M33" s="39">
+        <v>106</v>
+      </c>
+      <c r="N33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="41">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M34" s="39">
+        <v>107</v>
+      </c>
+      <c r="N34" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="O34" s="43">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M35" s="39">
+        <v>107</v>
+      </c>
+      <c r="N35" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="O35" s="41">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M36" s="39">
+        <v>107</v>
+      </c>
+      <c r="N36" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="O36" s="41">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M37" s="39">
+        <v>108</v>
+      </c>
+      <c r="N37" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="O37" s="43">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M38" s="39">
+        <v>108</v>
+      </c>
+      <c r="N38" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="O38" s="41">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="13:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M39" s="45">
+        <v>108</v>
+      </c>
+      <c r="N39" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="O39" s="46">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD12A982-4BBF-4F0E-BBED-E6C659859AE9}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:D54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="21">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="20">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="20">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15">
+        <v>384</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADCA751-F49F-4BAB-9120-5EB4150CFBFB}">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>106</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="20">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>106</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>107</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="20">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>107</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>108</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="20">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>108</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>109</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="20">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>109</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>110</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="20">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>110</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>111</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="20">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>111</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>114</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="21">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>114</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>114</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>115</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="21">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>115</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="20">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>115</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>104</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>104</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>104</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>104</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>105</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>105</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>105</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>106</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>106</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>106</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>106</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>107</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="21">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>107</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>107</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>108</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="21">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>108</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>108</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>